--- a/data/landings/cdfw/public/fish_bulletins/raw/fb161/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb161/raw/Table21.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb161/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb161/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510C0890-DDC6-6E43-8E53-57EE54593528}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B10C689-1F93-8E42-A807-2EDC1BDE4C3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21920" yWindow="460" windowWidth="19480" windowHeight="23800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1455,13 +1455,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>94737843</v>
